--- a/data/trans_dic/IP24_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP24_R-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>22,46%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,75; 28,03</t>
+          <t>12,6; 44,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 19,98</t>
+          <t>3,18; 29,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,78; 24,08</t>
+          <t>6,63; 37,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,4; 19,33</t>
+          <t>5,61; 47,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,97; 33,25</t>
+          <t>0,0; 17,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,33; 26,61</t>
+          <t>13,47; 50,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,99; 25,87</t>
+          <t>9,62; 46,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,85; 23,9</t>
+          <t>10,98; 42,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,31; 28,73</t>
+          <t>6,71; 25,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,83; 21,93</t>
+          <t>12,14; 33,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 23,11</t>
+          <t>11,39; 35,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,86; 19,82</t>
+          <t>12,71; 35,98</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>16,62%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,78; 32,15</t>
+          <t>18,75; 28,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,01; 19,18</t>
+          <t>12,08; 19,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,33; 22,39</t>
+          <t>15,78; 24,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 17,34</t>
+          <t>11,4; 19,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,76; 30,11</t>
+          <t>22,97; 33,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,67; 24,29</t>
+          <t>17,33; 26,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,56; 26,91</t>
+          <t>16,99; 25,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,29; 23,37</t>
+          <t>13,85; 23,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,94; 29,21</t>
+          <t>22,31; 28,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,21; 20,34</t>
+          <t>15,83; 21,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,66; 23,37</t>
+          <t>17,21; 23,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 18,96</t>
+          <t>13,86; 19,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>23,66%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,6; 44,1</t>
+          <t>15,0; 25,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 29,31</t>
+          <t>12,89; 22,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 37,64</t>
+          <t>10,96; 20,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 47,68</t>
+          <t>15,83; 27,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,43</t>
+          <t>17,93; 28,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,47; 50,66</t>
+          <t>17,01; 27,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,62; 46,72</t>
+          <t>17,13; 26,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 42,47</t>
+          <t>19,29; 39,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 25,37</t>
+          <t>17,51; 25,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,14; 33,59</t>
+          <t>16,36; 23,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,39; 35,57</t>
+          <t>15,14; 21,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,71; 35,98</t>
+          <t>19,59; 31,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>15,43%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,0; 25,52</t>
+          <t>21,78; 32,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,89; 22,74</t>
+          <t>11,01; 19,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,96; 20,15</t>
+          <t>13,33; 22,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,83; 27,2</t>
+          <t>9,16; 17,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,93; 28,6</t>
+          <t>19,76; 30,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,01; 27,81</t>
+          <t>14,67; 24,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,13; 26,78</t>
+          <t>17,56; 26,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,29; 39,29</t>
+          <t>13,29; 23,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,51; 25,11</t>
+          <t>21,94; 29,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,36; 23,14</t>
+          <t>14,21; 20,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,14; 21,81</t>
+          <t>16,66; 23,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,59; 31,45</t>
+          <t>12,47; 18,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP24_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP24_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,6; 44,1</t>
+          <t>12,81; 44,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 29,31</t>
+          <t>3,32; 31,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 37,64</t>
+          <t>6,66; 37,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,43</t>
+          <t>0,0; 17,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,47; 50,66</t>
+          <t>14,04; 52,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,62; 46,72</t>
+          <t>10,4; 45,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,71; 25,37</t>
+          <t>8,08; 27,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,14; 33,59</t>
+          <t>10,93; 32,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,39; 35,57</t>
+          <t>11,14; 34,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 28,65</t>
+          <t>16,94; 29,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 21,73</t>
+          <t>11,04; 21,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 18,63</t>
+          <t>8,77; 19,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,49; 34,86</t>
+          <t>10,3; 34,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,26; 37,25</t>
+          <t>22,8; 36,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,92; 22,06</t>
+          <t>11,12; 22,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,97; 30,19</t>
+          <t>17,63; 30,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 17,65</t>
+          <t>8,05; 17,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,47; 30,69</t>
+          <t>21,55; 30,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 20,4</t>
+          <t>12,47; 20,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,95; 22,37</t>
+          <t>13,85; 22,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 23,62</t>
+          <t>10,74; 24,13</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,75; 28,03</t>
+          <t>18,83; 28,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,08; 19,98</t>
+          <t>11,89; 19,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,78; 24,08</t>
+          <t>15,4; 23,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 19,33</t>
+          <t>11,82; 19,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,97; 33,25</t>
+          <t>23,29; 33,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,33; 26,61</t>
+          <t>17,5; 26,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,99; 25,87</t>
+          <t>16,73; 25,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,85; 23,9</t>
+          <t>13,76; 23,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,31; 28,73</t>
+          <t>22,35; 29,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,83; 21,93</t>
+          <t>15,63; 21,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 23,11</t>
+          <t>17,33; 23,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,86; 19,82</t>
+          <t>13,69; 19,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,0; 25,52</t>
+          <t>14,7; 25,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,89; 22,74</t>
+          <t>13,11; 23,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,96; 20,15</t>
+          <t>10,69; 19,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 27,2</t>
+          <t>16,08; 27,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,93; 28,6</t>
+          <t>18,06; 28,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,01; 27,81</t>
+          <t>16,86; 27,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 26,78</t>
+          <t>17,1; 27,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,29; 39,29</t>
+          <t>19,64; 39,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,51; 25,11</t>
+          <t>17,42; 24,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,36; 23,14</t>
+          <t>16,34; 23,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,14; 21,81</t>
+          <t>15,18; 21,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,59; 31,45</t>
+          <t>19,34; 29,73</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,78; 32,15</t>
+          <t>21,35; 30,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,01; 19,18</t>
+          <t>11,12; 19,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,33; 22,39</t>
+          <t>13,11; 21,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,16; 17,34</t>
+          <t>9,17; 17,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,76; 30,11</t>
+          <t>20,11; 30,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,67; 24,29</t>
+          <t>14,51; 24,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,56; 26,91</t>
+          <t>17,67; 27,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,29; 23,37</t>
+          <t>13,63; 23,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,94; 29,21</t>
+          <t>22,01; 29,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,21; 20,34</t>
+          <t>14,42; 20,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,66; 23,37</t>
+          <t>16,54; 22,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,47; 18,96</t>
+          <t>12,34; 18,79</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,97; 26,0</t>
+          <t>21,21; 25,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,83; 18,31</t>
+          <t>13,82; 18,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,58; 19,0</t>
+          <t>14,41; 19,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,33; 19,91</t>
+          <t>14,08; 19,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,8; 28,02</t>
+          <t>22,78; 28,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,08; 22,89</t>
+          <t>18,15; 23,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,51; 24,36</t>
+          <t>19,52; 24,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,84; 24,07</t>
+          <t>16,94; 24,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,42; 26,13</t>
+          <t>22,5; 26,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,22; 19,69</t>
+          <t>16,53; 19,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,64; 21,0</t>
+          <t>17,56; 20,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,19; 20,2</t>
+          <t>16,17; 20,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP24_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP24_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,81; 44,51</t>
+          <t>12,55; 43,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 31,36</t>
+          <t>3,27; 31,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,66; 37,55</t>
+          <t>6,74; 35,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 47,68</t>
+          <t>5,52; 49,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,11</t>
+          <t>0,0; 17,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,04; 52,07</t>
+          <t>12,61; 49,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 45,71</t>
+          <t>9,34; 46,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,98; 42,47</t>
+          <t>10,34; 40,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,08; 27,61</t>
+          <t>8,17; 26,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,93; 32,76</t>
+          <t>10,9; 34,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,14; 34,18</t>
+          <t>11,29; 34,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,71; 35,98</t>
+          <t>13,09; 36,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,94; 29,25</t>
+          <t>17,23; 29,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,04; 21,67</t>
+          <t>11,07; 21,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 19,02</t>
+          <t>8,66; 19,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,3; 34,58</t>
+          <t>10,71; 33,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,8; 36,36</t>
+          <t>23,01; 36,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,12; 22,81</t>
+          <t>11,44; 23,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,63; 30,22</t>
+          <t>17,38; 29,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 17,45</t>
+          <t>8,15; 17,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,55; 30,25</t>
+          <t>21,71; 30,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,47; 20,24</t>
+          <t>12,52; 20,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,85; 22,2</t>
+          <t>13,95; 22,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,74; 24,13</t>
+          <t>10,78; 25,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,83; 28,61</t>
+          <t>18,87; 28,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,89; 19,85</t>
+          <t>12,07; 19,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,4; 23,53</t>
+          <t>15,47; 23,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,82; 19,55</t>
+          <t>11,77; 19,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,29; 33,33</t>
+          <t>22,52; 32,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,5; 26,6</t>
+          <t>17,01; 26,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,73; 25,68</t>
+          <t>17,28; 26,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,76; 23,61</t>
+          <t>13,96; 24,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,35; 29,09</t>
+          <t>21,93; 29,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,63; 21,71</t>
+          <t>15,86; 21,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,33; 23,33</t>
+          <t>17,46; 23,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,69; 19,71</t>
+          <t>13,84; 19,85</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,7; 25,79</t>
+          <t>14,76; 25,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,11; 23,18</t>
+          <t>13,25; 23,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,69; 19,89</t>
+          <t>11,31; 20,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,08; 27,25</t>
+          <t>15,9; 27,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 28,49</t>
+          <t>17,47; 28,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,86; 27,45</t>
+          <t>16,48; 27,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,1; 27,2</t>
+          <t>17,33; 26,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,64; 39,33</t>
+          <t>19,85; 39,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 24,7</t>
+          <t>17,4; 24,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 23,63</t>
+          <t>16,65; 23,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,18; 21,95</t>
+          <t>15,21; 21,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,34; 29,73</t>
+          <t>19,16; 30,64</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,35; 30,93</t>
+          <t>21,25; 31,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,12; 19,41</t>
+          <t>11,26; 19,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,11; 21,99</t>
+          <t>13,35; 21,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,17; 17,09</t>
+          <t>9,07; 17,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,11; 30,79</t>
+          <t>19,96; 30,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 24,47</t>
+          <t>14,95; 24,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,67; 27,7</t>
+          <t>17,12; 27,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,63; 23,9</t>
+          <t>13,78; 23,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,01; 29,19</t>
+          <t>22,11; 29,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,42; 20,53</t>
+          <t>14,46; 20,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,54; 22,85</t>
+          <t>16,78; 23,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,34; 18,79</t>
+          <t>12,41; 18,82</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,21; 25,96</t>
+          <t>21,03; 25,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,82; 18,31</t>
+          <t>13,68; 18,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,41; 19,15</t>
+          <t>14,9; 19,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,08; 19,57</t>
+          <t>14,01; 19,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,78; 28,19</t>
+          <t>22,63; 28,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,15; 23,0</t>
+          <t>18,05; 22,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,52; 24,58</t>
+          <t>19,48; 24,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,94; 24,19</t>
+          <t>16,89; 23,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,5; 26,15</t>
+          <t>22,46; 26,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,53; 19,8</t>
+          <t>16,26; 19,74</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,56; 20,92</t>
+          <t>17,67; 21,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,17; 20,52</t>
+          <t>16,0; 20,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP24_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP24_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>17,96%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,55; 43,32</t>
+          <t>19,94; 31,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 31,37</t>
+          <t>13,4; 24,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,74; 35,95</t>
+          <t>17,82; 30,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 49,51</t>
+          <t>10,38; 20,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,49</t>
+          <t>18,19; 29,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,61; 49,04</t>
+          <t>10,6; 20,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,34; 46,27</t>
+          <t>9,38; 19,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 40,09</t>
+          <t>12,12; 39,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,17; 26,13</t>
+          <t>20,37; 28,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,9; 34,04</t>
+          <t>13,24; 20,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 34,26</t>
+          <t>14,76; 22,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,09; 36,62</t>
+          <t>13,09; 29,39</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>18,33%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,23; 29,09</t>
+          <t>22,97; 33,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 21,96</t>
+          <t>17,33; 26,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,66; 19,19</t>
+          <t>16,99; 25,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,71; 33,98</t>
+          <t>15,52; 29,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,01; 36,95</t>
+          <t>18,75; 28,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,44; 23,08</t>
+          <t>12,08; 19,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,38; 29,44</t>
+          <t>15,78; 24,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 17,66</t>
+          <t>12,09; 20,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,71; 30,39</t>
+          <t>22,31; 28,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,52; 20,33</t>
+          <t>15,83; 21,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,95; 22,02</t>
+          <t>17,21; 23,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 25,35</t>
+          <t>15,19; 22,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>28,94%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,87; 28,4</t>
+          <t>17,93; 28,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,07; 19,98</t>
+          <t>17,01; 27,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,47; 23,94</t>
+          <t>17,13; 26,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,77; 19,58</t>
+          <t>21,85; 60,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,52; 32,58</t>
+          <t>15,0; 25,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,01; 26,01</t>
+          <t>12,89; 22,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 26,01</t>
+          <t>10,96; 20,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,96; 24,53</t>
+          <t>17,07; 29,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,93; 29,02</t>
+          <t>17,51; 25,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,86; 21,78</t>
+          <t>16,36; 23,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,46; 23,35</t>
+          <t>15,14; 21,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,84; 19,85</t>
+          <t>21,89; 45,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>15,96%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,76; 25,02</t>
+          <t>19,76; 30,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,25; 23,28</t>
+          <t>14,67; 24,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,31; 20,51</t>
+          <t>17,56; 26,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,9; 27,3</t>
+          <t>13,97; 24,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,47; 28,01</t>
+          <t>21,78; 32,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,48; 27,41</t>
+          <t>11,01; 19,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,33; 26,44</t>
+          <t>13,33; 22,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,85; 39,5</t>
+          <t>9,43; 18,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 24,77</t>
+          <t>21,94; 29,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 23,56</t>
+          <t>14,21; 20,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,21; 21,89</t>
+          <t>16,66; 23,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,16; 30,64</t>
+          <t>12,87; 19,61</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>20,46%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,25; 31,15</t>
+          <t>22,8; 28,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 19,32</t>
+          <t>18,08; 22,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,35; 21,62</t>
+          <t>19,51; 24,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,07; 17,37</t>
+          <t>19,13; 35,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,96; 30,5</t>
+          <t>20,97; 26,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,95; 24,57</t>
+          <t>13,83; 18,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,12; 27,44</t>
+          <t>14,58; 19,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 23,81</t>
+          <t>15,33; 22,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,11; 29,14</t>
+          <t>22,42; 26,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,46; 20,81</t>
+          <t>16,22; 19,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,78; 23,42</t>
+          <t>17,64; 21,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,41; 18,82</t>
+          <t>17,87; 25,8</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>23,41%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>15,94%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>16,8%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>16,51%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>25,29%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>20,33%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>21,96%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>19,54%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>24,32%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>18,08%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>19,31%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>17,95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>21,03; 25,98</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>13,68; 18,24</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>14,9; 19,38</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>14,01; 19,58</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>22,63; 28,03</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>18,05; 22,81</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>19,48; 24,52</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>16,89; 23,68</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>22,46; 26,2</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>16,26; 19,74</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>17,67; 21,03</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>16,0; 20,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
